--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1094623.715998322</v>
+        <v>-1099337.626952686</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.093379124</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13072142.63190277</v>
+        <v>13069782.7143411</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>196.5451312905909</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>44.38502647443676</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226442</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968088</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>9.703702657108208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>264.7513637385157</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>14.93167272337612</v>
       </c>
     </row>
     <row r="6">
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968088</v>
+        <v>50.64353720722485</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>175.4482046343369</v>
+        <v>24.17209448595903</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>335.2372142839319</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -1199,7 +1199,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>284.3777596740578</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1291,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>75.05512583843064</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>150.0411797821666</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>327.8853503989948</v>
       </c>
       <c r="H11" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372786</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362799</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>135.288996404874</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993872</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177844</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465755</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901685</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
-        <v>56.94707827356894</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
@@ -1588,13 +1588,13 @@
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>19.09274158799286</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>186.0749888099043</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>232.2214864669514</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372781</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362799</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993872</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177844</v>
+        <v>82.99846957177839</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465755</v>
+        <v>82.9249116246575</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442482</v>
+        <v>84.67436304442477</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456093</v>
+        <v>60.68516871456087</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901679</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>51.45091203038363</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.83185190599698</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,7 +1853,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
         <v>278.6711586412925</v>
@@ -1862,7 +1862,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
         <v>236.9290753658111</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253663</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I19" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978639</v>
@@ -2068,7 +2068,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
@@ -2090,16 +2090,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
         <v>251.2267481799146</v>
@@ -2327,16 +2327,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542118</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820276</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345498</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852509</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838877</v>
+        <v>24.17382596574986</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828889</v>
+        <v>52.06849973564998</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161064</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696763</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034457</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813243</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885338</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431722</v>
+        <v>70.5760187316783</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459962</v>
+        <v>55.72314698196071</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643935</v>
+        <v>41.29686219380044</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931846</v>
+        <v>41.22330424667955</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908573</v>
+        <v>42.97275566644682</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147786</v>
+        <v>53.79159358883895</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804991</v>
+        <v>41.14384575541099</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922184</v>
+        <v>18.98356133658292</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367775</v>
+        <v>9.882059701038841</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920507</v>
+        <v>88.00800320656616</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.247946540447</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273129</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.544483271452</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3332,7 +3332,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2174.782969737746</v>
+        <v>95.45895830311986</v>
       </c>
       <c r="C2" t="n">
-        <v>1781.607468240677</v>
+        <v>95.45895830311986</v>
       </c>
       <c r="D2" t="n">
-        <v>1396.166339457345</v>
+        <v>95.45895830311986</v>
       </c>
       <c r="E2" t="n">
-        <v>1197.635903810283</v>
+        <v>95.45895830311986</v>
       </c>
       <c r="F2" t="n">
-        <v>780.7414653402611</v>
+        <v>50.62559822793121</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475493</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475493</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>536.8159511132837</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.074736123376</v>
+        <v>1552.058346020845</v>
       </c>
       <c r="N2" t="n">
-        <v>1602.886019760838</v>
+        <v>2065.661024630534</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465276</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596798</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737746</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737746</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737746</v>
+        <v>1652.896053192571</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.782969737746</v>
+        <v>1652.896053192571</v>
       </c>
       <c r="W2" t="n">
-        <v>2174.782969737746</v>
+        <v>1281.897018160859</v>
       </c>
       <c r="X2" t="n">
-        <v>2174.782969737746</v>
+        <v>892.4444130939156</v>
       </c>
       <c r="Y2" t="n">
-        <v>2174.782969737746</v>
+        <v>495.9537040145167</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>556.192785981317</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414092</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628895</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737773</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284334</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767087</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>1423.897595591875</v>
+        <v>642.3356118811482</v>
       </c>
       <c r="N3" t="n">
-        <v>1423.897595591875</v>
+        <v>1155.938290490836</v>
       </c>
       <c r="O3" t="n">
-        <v>1940.417878182856</v>
+        <v>1669.540969100525</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182856</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737746</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737746</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467711</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222783</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>710.8623597192905</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="C4" t="n">
-        <v>540.6572417852797</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="D4" t="n">
-        <v>385.0241286877944</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="E4" t="n">
-        <v>385.0241286877944</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="F4" t="n">
-        <v>385.0241286877944</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="G4" t="n">
-        <v>216.77007478724</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H4" t="n">
-        <v>206.9683549315751</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>876.2517857624357</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>590.8129940043366</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>324.8336488251608</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363074</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="X4" t="n">
-        <v>710.8623597192905</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="Y4" t="n">
-        <v>710.8623597192905</v>
+        <v>41.50324675633844</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>856.675910924728</v>
+        <v>1659.585094405145</v>
       </c>
       <c r="C5" t="n">
-        <v>856.675910924728</v>
+        <v>1659.585094405145</v>
       </c>
       <c r="D5" t="n">
-        <v>471.2347821413957</v>
+        <v>1274.143965621813</v>
       </c>
       <c r="E5" t="n">
-        <v>471.2347821413957</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F5" t="n">
-        <v>458.3807477117775</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G5" t="n">
-        <v>449.2583962401848</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475493</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>175.3530084793348</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>668.6733001978637</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1206.932085207956</v>
+        <v>1552.058346020845</v>
       </c>
       <c r="N5" t="n">
-        <v>1734.743368845418</v>
+        <v>1726.9748456854</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737746</v>
+        <v>1726.9748456854</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023268</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964319</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964319</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="U5" t="n">
-        <v>1970.276500964319</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="V5" t="n">
-        <v>1628.169691667837</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="W5" t="n">
-        <v>1257.170656636125</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="X5" t="n">
-        <v>1257.170656636125</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Y5" t="n">
-        <v>1257.170656636125</v>
+        <v>2060.079840116542</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284334</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="L6" t="n">
-        <v>480.0174418653852</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="M6" t="n">
-        <v>1018.276226875477</v>
+        <v>407.9705203262577</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875477</v>
+        <v>921.5731989359458</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466458</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182856</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>346.7952026916878</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="C7" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="D7" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="E7" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="F7" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="G7" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H7" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>767.722273214755</v>
+        <v>794.6330228739437</v>
       </c>
       <c r="T7" t="n">
-        <v>532.0032213829891</v>
+        <v>558.9139710421778</v>
       </c>
       <c r="U7" t="n">
-        <v>532.0032213829891</v>
+        <v>558.9139710421778</v>
       </c>
       <c r="V7" t="n">
-        <v>532.0032213829891</v>
+        <v>558.9139710421778</v>
       </c>
       <c r="W7" t="n">
-        <v>532.0032213829891</v>
+        <v>275.5835689733553</v>
       </c>
       <c r="X7" t="n">
-        <v>532.0032213829891</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="Y7" t="n">
-        <v>532.0032213829891</v>
+        <v>41.50324675633844</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.8308573432142</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="C8" t="n">
-        <v>802.8308573432142</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D8" t="n">
-        <v>802.8308573432142</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E8" t="n">
-        <v>802.8308573432142</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F8" t="n">
-        <v>385.936418873192</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
         <v>47.31297010154361</v>
@@ -4808,19 +4808,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>1905.389306738351</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>1563.28249744187</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W8" t="n">
-        <v>1192.283462410157</v>
+        <v>1956.65655633099</v>
       </c>
       <c r="X8" t="n">
-        <v>802.8308573432142</v>
+        <v>1567.203951264046</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.8308573432142</v>
+        <v>1279.953688967018</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>632.8109751081458</v>
       </c>
       <c r="N9" t="n">
-        <v>2134.729194295015</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.5044986980989</v>
+        <v>388.8831655137244</v>
       </c>
       <c r="C10" t="n">
-        <v>77.69124027544166</v>
+        <v>388.8831655137244</v>
       </c>
       <c r="D10" t="n">
-        <v>77.69124027544166</v>
+        <v>233.2500524162392</v>
       </c>
       <c r="E10" t="n">
         <v>77.69124027544166</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>622.0429194582225</v>
+        <v>797.2032453883824</v>
       </c>
       <c r="U10" t="n">
-        <v>622.0429194582225</v>
+        <v>797.2032453883824</v>
       </c>
       <c r="V10" t="n">
-        <v>622.0429194582225</v>
+        <v>797.2032453883824</v>
       </c>
       <c r="W10" t="n">
-        <v>338.7125173894001</v>
+        <v>797.2032453883824</v>
       </c>
       <c r="X10" t="n">
-        <v>338.7125173894001</v>
+        <v>797.2032453883824</v>
       </c>
       <c r="Y10" t="n">
-        <v>338.7125173894001</v>
+        <v>574.0911842050257</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1719.577864530541</v>
+        <v>1611.414556352055</v>
       </c>
       <c r="C11" t="n">
-        <v>1398.198638179666</v>
+        <v>1290.035330001179</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179666</v>
+        <v>976.3904763640405</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>645.6032266267789</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185757</v>
+        <v>645.6032266267789</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527727</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H11" t="n">
-        <v>128.659969465457</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5075,16 +5075,16 @@
         <v>2827.282650873813</v>
       </c>
       <c r="V11" t="n">
-        <v>2690.627098949698</v>
+        <v>2556.972116723526</v>
       </c>
       <c r="W11" t="n">
-        <v>2690.627098949698</v>
+        <v>2257.769356838007</v>
       </c>
       <c r="X11" t="n">
-        <v>2372.970769028949</v>
+        <v>1940.113026917258</v>
       </c>
       <c r="Y11" t="n">
-        <v>2048.276335095744</v>
+        <v>1940.113026917258</v>
       </c>
     </row>
     <row r="12">
@@ -5124,16 +5124,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="M12" t="n">
-        <v>1606.310991511064</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N12" t="n">
-        <v>2262.088962721623</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>328.1273454378274</v>
+        <v>571.2583719907701</v>
       </c>
       <c r="C13" t="n">
-        <v>229.7185026500105</v>
+        <v>472.8495292029532</v>
       </c>
       <c r="D13" t="n">
-        <v>145.8816646987191</v>
+        <v>472.8495292029532</v>
       </c>
       <c r="E13" t="n">
-        <v>62.11912770411553</v>
+        <v>389.0869922083497</v>
       </c>
       <c r="F13" t="n">
-        <v>62.11912770411553</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
         <v>999.626924813816</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.105626306845</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1223.182849621273</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.540333009368</v>
+        <v>936.0428256245441</v>
       </c>
       <c r="V13" t="n">
-        <v>815.3572629763862</v>
+        <v>741.8597555915622</v>
       </c>
       <c r="W13" t="n">
-        <v>603.8231360537577</v>
+        <v>722.5741580279329</v>
       </c>
       <c r="X13" t="n">
-        <v>441.5390889829348</v>
+        <v>722.5741580279329</v>
       </c>
       <c r="Y13" t="n">
-        <v>441.5390889829348</v>
+        <v>571.2583719907701</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1618.175009429187</v>
+        <v>1370.477011451</v>
       </c>
       <c r="C14" t="n">
-        <v>1296.795783078311</v>
+        <v>1370.477011451</v>
       </c>
       <c r="D14" t="n">
-        <v>983.1509294411724</v>
+        <v>1056.832157813862</v>
       </c>
       <c r="E14" t="n">
-        <v>983.1509294411724</v>
+        <v>726.0449080766001</v>
       </c>
       <c r="F14" t="n">
-        <v>638.0527661173442</v>
+        <v>380.9467447527718</v>
       </c>
       <c r="G14" t="n">
-        <v>296.6862857515412</v>
+        <v>380.9467447527718</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654565</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.534777998631</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="V14" t="n">
-        <v>2589.224243848344</v>
+        <v>2499.985069341892</v>
       </c>
       <c r="W14" t="n">
-        <v>2589.224243848344</v>
+        <v>2200.782309456374</v>
       </c>
       <c r="X14" t="n">
-        <v>2271.567913927594</v>
+        <v>1883.125979535624</v>
       </c>
       <c r="Y14" t="n">
-        <v>1946.87347999439</v>
+        <v>1558.431545602419</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5355,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1084.690231197904</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
         <v>1740.468202408463</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>558.6374311877009</v>
+        <v>376.5463125075718</v>
       </c>
       <c r="C16" t="n">
-        <v>460.2285883998841</v>
+        <v>376.5463125075718</v>
       </c>
       <c r="D16" t="n">
-        <v>376.3917504485927</v>
+        <v>292.7094745562804</v>
       </c>
       <c r="E16" t="n">
-        <v>292.6292134539891</v>
+        <v>208.9469375616769</v>
       </c>
       <c r="F16" t="n">
-        <v>207.0995538131559</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="H16" t="n">
         <v>123.4172779208437</v>
@@ -5434,52 +5434,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027738</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118225</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138163</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173673</v>
       </c>
       <c r="Q16" t="n">
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="T16" t="n">
-        <v>1332.809865128936</v>
+        <v>1280.705150907707</v>
       </c>
       <c r="U16" t="n">
-        <v>1332.809865128936</v>
+        <v>1067.062634295802</v>
       </c>
       <c r="V16" t="n">
-        <v>1138.626795095954</v>
+        <v>1015.092016083293</v>
       </c>
       <c r="W16" t="n">
-        <v>927.0926681733251</v>
+        <v>803.5578891606648</v>
       </c>
       <c r="X16" t="n">
-        <v>764.8086211025022</v>
+        <v>641.2738420898418</v>
       </c>
       <c r="Y16" t="n">
-        <v>672.0491747328083</v>
+        <v>489.9580560526791</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975461</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099323</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924246</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5540,25 +5540,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462923</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,46 +5677,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960415</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>629.009399256734</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P19" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R19" t="n">
         <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918814</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X19" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5780,19 +5780,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5835,13 +5835,13 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.889542297544</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099302</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803419</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>1606.310991511064</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N24" t="n">
-        <v>1606.310991511064</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718127</v>
@@ -6224,19 +6224,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
         <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
         <v>2956.374511095034</v>
@@ -6312,10 +6312,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
-        <v>1751.713933651898</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6361,7 +6361,7 @@
         <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414157</v>
@@ -6382,16 +6382,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225736</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.050822590411</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>247.9841471388008</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>606.9665031662627</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.389518343938</v>
+        <v>1193.338156614365</v>
       </c>
       <c r="M29" t="n">
-        <v>1925.441780118092</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N29" t="n">
-        <v>2546.304425485127</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O29" t="n">
-        <v>3079.395388107029</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6549,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654424</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800456</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463659</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057083</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230762</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835507</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076159</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>621.3530052914975</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1114.673297010026</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1765.947289781677</v>
+        <v>1722.160576876728</v>
       </c>
       <c r="N32" t="n">
-        <v>2399.03166614621</v>
+        <v>2249.97186051419</v>
       </c>
       <c r="O32" t="n">
-        <v>2944.344359765609</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.53185189713</v>
+        <v>3038.19895353804</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038079</v>
+        <v>3303.341514273832</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908494</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397276</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761239</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394122</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291774</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076159</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965119</v>
+        <v>365.6713676929717</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918658</v>
+        <v>309.3853606404862</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237452</v>
+        <v>267.6713584245261</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123125</v>
+        <v>226.0316571652539</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546501</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834603</v>
+        <v>128.2898902407228</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431899</v>
+        <v>86.730450083742</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076159</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>149.4335135798905</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074066</v>
+        <v>342.9206752648152</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082768</v>
+        <v>612.8479737408627</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465408</v>
+        <v>910.7916726541096</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.31006990482</v>
+        <v>1093.981306685319</v>
       </c>
       <c r="O34" t="n">
-        <v>1344.287929673599</v>
+        <v>1256.686073727027</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.69141937659</v>
+        <v>1376.562239503605</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746641</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308583</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420497</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518096</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689361</v>
+        <v>987.7859626250186</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395503</v>
+        <v>835.725728327368</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000926</v>
+        <v>666.3144371400708</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124404</v>
+        <v>546.1532258045792</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584485</v>
+        <v>436.9602755027478</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
@@ -6929,7 +6929,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6968,16 +6968,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,16 +7014,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960399</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M37" t="n">
-        <v>499.953029634304</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879418</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296498</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7154,19 +7154,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7208,7 +7208,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
         <v>2405.467337224691</v>
@@ -7251,16 +7251,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1606.310991511064</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N39" t="n">
         <v>1740.468202408463</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7339,13 +7339,13 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
         <v>1089.200323498045</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7388,22 +7388,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,7 +7436,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7445,10 +7445,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>67.69877031229987</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222417</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>442.71782091847</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>629.009399256734</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879432</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296512</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.77996610623</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7667,7 +7667,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
         <v>3105.956385205777</v>
@@ -7725,16 +7725,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7804,22 +7804,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291065</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446707</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184705</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567345</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655151</v>
+        <v>812.1990332879436</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072231</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P46" t="n">
         <v>1094.77996610623</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321639</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920146</v>
       </c>
       <c r="O2" t="n">
-        <v>188.8202997518119</v>
+        <v>159.1611234709534</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>561.0555281269411</v>
+        <v>210.8379091467831</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083971</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431194</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>276.247644678813</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321639</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>325.8018243322838</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8292,22 +8292,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>93.76504805760153</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837485</v>
+        <v>462.5560852512505</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083971</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431194</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8456,7 +8456,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>464.6079711628815</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,28 +8529,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>667.5244230630204</v>
       </c>
       <c r="O9" t="n">
-        <v>325.939387961783</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8772,19 +8772,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>400.7288157213065</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9003,22 +9003,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>636.8366347720143</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9483,16 +9483,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>688.0608343844987</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9729,13 +9729,13 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>461.5665676450056</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>220.884447093964</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>220.884447093964</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10437,7 +10437,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>333.2595653118434</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10674,7 +10674,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10911,7 +10911,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>220.8844470939643</v>
+        <v>335.1420048916687</v>
       </c>
       <c r="O39" t="n">
         <v>92.68755888888889</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11382,10 +11382,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>10.06746516315014</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>132.3184324039109</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442482</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681696</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456093</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>72.76253231097525</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>190.3260440654093</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>139.3364970496466</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
-        <v>17.54242106749089</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372786</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362793</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993866</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681696</v>
+        <v>95.4932009668169</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338894</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>140.7903273022684</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.97077627079415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1143505.092629188</v>
+        <v>1142301.997401668</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1143505.092629188</v>
+        <v>1142301.997401668</v>
       </c>
     </row>
     <row r="4">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162298.960284021</v>
+        <v>162298.9602840212</v>
       </c>
       <c r="C2" t="n">
         <v>162298.9602840211</v>
       </c>
       <c r="D2" t="n">
-        <v>162298.9602840211</v>
+        <v>162298.960284021</v>
       </c>
       <c r="E2" t="n">
         <v>143423.1210819606</v>
@@ -26326,31 +26326,31 @@
         <v>143423.1210819606</v>
       </c>
       <c r="G2" t="n">
-        <v>162298.9602840215</v>
+        <v>162298.9602840214</v>
       </c>
       <c r="H2" t="n">
         <v>162298.9602840215</v>
       </c>
       <c r="I2" t="n">
-        <v>162298.9602840215</v>
+        <v>162298.9602840214</v>
       </c>
       <c r="J2" t="n">
-        <v>162298.9602840212</v>
+        <v>162298.9602840213</v>
       </c>
       <c r="K2" t="n">
         <v>162298.9602840213</v>
       </c>
       <c r="L2" t="n">
-        <v>162298.9602840208</v>
+        <v>162298.9602840209</v>
       </c>
       <c r="M2" t="n">
         <v>162298.9602840214</v>
       </c>
       <c r="N2" t="n">
-        <v>162298.9602840214</v>
+        <v>162298.9602840215</v>
       </c>
       <c r="O2" t="n">
-        <v>162298.9602840214</v>
+        <v>162298.9602840215</v>
       </c>
       <c r="P2" t="n">
         <v>162298.9602840215</v>
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062208</v>
+        <v>22558.42953401351</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.3255366819</v>
+        <v>47425.32553668187</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728557</v>
+        <v>62456.24177539668</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962308</v>
+        <v>43252.52447081121</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.9094840231</v>
+        <v>216193.9885327255</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.9094840231</v>
+        <v>216193.9885327255</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
@@ -26427,16 +26427,16 @@
         <v>125701.6674923646</v>
       </c>
       <c r="F4" t="n">
-        <v>125701.6674923646</v>
+        <v>125701.6674923647</v>
       </c>
       <c r="G4" t="n">
-        <v>173460.5839839467</v>
+        <v>173460.5839839468</v>
       </c>
       <c r="H4" t="n">
-        <v>173460.5839839467</v>
+        <v>173460.5839839468</v>
       </c>
       <c r="I4" t="n">
-        <v>173460.5839839467</v>
+        <v>173460.5839839468</v>
       </c>
       <c r="J4" t="n">
         <v>174211.0764483299</v>
@@ -26445,7 +26445,7 @@
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478465</v>
+        <v>173822.1079387918</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,22 +26482,22 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-297275.1986318715</v>
+        <v>-292923.7528175766</v>
       </c>
       <c r="C6" t="n">
-        <v>-115070.2503400158</v>
+        <v>-119065.0957835217</v>
       </c>
       <c r="D6" t="n">
-        <v>-122238.5713616872</v>
+        <v>-129974.8605850787</v>
       </c>
       <c r="E6" t="n">
-        <v>-147587.127584289</v>
+        <v>-147796.8591309786</v>
       </c>
       <c r="F6" t="n">
-        <v>-35464.56611024454</v>
+        <v>-35674.29765693421</v>
       </c>
       <c r="G6" t="n">
-        <v>-116756.7185521268</v>
+        <v>-116756.7185521269</v>
       </c>
       <c r="H6" t="n">
+        <v>-69331.39301544501</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-69331.39301544504</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-275857.0254581575</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-75571.16141822812</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-134802.5875633218</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-112583.9174862562</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-69331.39301544498</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-97099.08705821619</v>
+      </c>
+      <c r="P6" t="n">
         <v>-69331.39301544489</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-69331.39301544492</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-282373.3106127306</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-75571.16141822806</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-130753.7503528497</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-111532.2224750681</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-69331.39301544501</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-97099.08705821622</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-69331.39301544492</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26814,10 +26814,10 @@
         <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095198</v>
+        <v>844.4391950293137</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,31 +26914,31 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085237</v>
+        <v>59.28165692085234</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346408</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660696</v>
+        <v>78.07030221924585</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551339</v>
+        <v>17.58004954287445</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485845</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773707</v>
+        <v>659.3622249971646</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407333</v>
+        <v>117.1268713042794</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085237</v>
+        <v>59.28165692085234</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346408</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485845</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>202.01255834403</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>368.3404676108852</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27427,25 +27427,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.6626360434351</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.9184993862718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27549,16 +27549,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2200628710127</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,19 +27588,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>56.09085619065854</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27673,16 +27673,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>377.5941292652288</v>
       </c>
     </row>
     <row r="6">
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>27.9184993862718</v>
+        <v>124.5704364758558</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27792,7 +27792,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>25.33971834493923</v>
+        <v>176.6158284933171</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27859,13 +27859,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>73.79391367294494</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>108.1480423145471</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>93.44794091624003</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>83.32068153128159</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28071,13 +28071,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -28749,10 +28749,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>5.636002634529603</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2979821082788</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28995,37 +28995,37 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2979821082788</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29193,37 +29193,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>35.71049010668821</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29235,34 +29235,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082788</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>30.27223765901232</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431634</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29533,28 +29533,28 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
+        <v>30.2722376590126</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="K29" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="L29" t="n">
-        <v>30.2722376590126</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>48.65992738832932</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>81.10808140893317</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L34" t="n">
-        <v>106.336457300071</v>
+        <v>106.8683420224725</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>18.7144686125385</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30165,22 +30165,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>5.636002634528012</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30411,7 +30411,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30420,13 +30420,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082774</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,31 +30639,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>35.71049010668871</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30739,7 +30739,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>37.61298457733328</v>
@@ -30876,10 +30876,10 @@
         <v>130.3599693155843</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>35.71049010668915</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30888,13 +30888,13 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>5.636002634529973</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O2" t="n">
-        <v>39.25646232771554</v>
+        <v>9.597286046856986</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>468.6684060776292</v>
+        <v>118.4507870974712</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>133.1892414995757</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>176.6833329944998</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>3.704701200683298</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344366</v>
+        <v>370.1689632019386</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35176,7 +35176,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>314.3065239219563</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>582.1523102088538</v>
       </c>
       <c r="O9" t="n">
-        <v>233.2518290728942</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>310.6684688643883</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>544.4495127227025</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257294</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326901</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488449</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36045,10 +36045,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565496</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683763</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634530013</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>595.6737123351868</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36291,16 +36291,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634530013</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36449,13 +36449,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>374.483202825691</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>201.4959849287082</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634530013</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36601,13 +36601,13 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
         <v>381.9767751656</v>
@@ -36616,7 +36616,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>135.5123342397974</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446882</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>176.3831193851016</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272236</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37069,28 +37069,28 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>411.2683678201089</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>611.0832447409209</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511626</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449822</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458574</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>267.8207684199923</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75.16693519537668</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>247.8874524576768</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791197</v>
+        <v>82.70543230055088</v>
       </c>
       <c r="K34" t="n">
-        <v>188.998114986881</v>
+        <v>195.4415774595199</v>
       </c>
       <c r="L34" t="n">
-        <v>272.121952122091</v>
+        <v>272.6538368444924</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>300.9532312255019</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750299</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>139.8015047504967</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>171.421497456548</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>315.4000036905433</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37631,7 +37631,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>135.5123342397976</v>
+        <v>249.769892037502</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37716,13 +37716,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634528635</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.63600263452964</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37956,10 +37956,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110598</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38102,10 +38102,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934991</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38184,13 +38184,13 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>190.6760370094888</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
